--- a/海晟目录/指标/黑龙江育苗/黑龙江微信育苗报表表样20180316.xlsx
+++ b/海晟目录/指标/黑龙江育苗/黑龙江微信育苗报表表样20180316.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9405" tabRatio="660" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9405" tabRatio="660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="育苗播种进度统计" sheetId="1" r:id="rId1"/>
@@ -481,10 +481,6 @@
   </si>
   <si>
     <t>10071406</t>
-  </si>
-  <si>
-    <t>开始：10071407，结束：10071408</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>开始：10071508，结束：10071509</t>
@@ -567,6 +563,10 @@
   </si>
   <si>
     <t>10071506</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始：10071407，结束：10071408</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1169,7 +1169,7 @@
   <dimension ref="A2:I29"/>
   <sheetViews>
     <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1253,7 +1253,7 @@
     <row r="6" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20" t="s">
@@ -1443,7 +1443,7 @@
         <v>10070215</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="20" t="s">
@@ -1558,14 +1558,14 @@
         <v>10070216</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="20" t="s">
         <v>32</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I23" s="8">
         <v>10070218</v>
@@ -2017,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2083,8 +2083,8 @@
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>99</v>
+      <c r="B5" s="21" t="s">
+        <v>114</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2244,7 +2244,7 @@
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -2374,8 +2374,8 @@
       <c r="D25" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="33" t="s">
-        <v>105</v>
+      <c r="E25" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="20" t="s">
@@ -2871,7 +2871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -2907,7 +2907,7 @@
         <v>62</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2945,7 +2945,7 @@
     <row r="6" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25"/>
       <c r="B6" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="20" t="s">
@@ -2971,7 +2971,7 @@
         <v>62</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3046,7 +3046,7 @@
         <v>62</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3103,7 +3103,7 @@
         <v>92</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
@@ -3129,7 +3129,7 @@
         <v>62</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3188,7 +3188,7 @@
         <v>93</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F23" s="26"/>
       <c r="G23" s="20" t="s">
@@ -3207,7 +3207,7 @@
         <v>65</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3245,7 +3245,7 @@
         <v>10071514</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3330,7 +3330,7 @@
         <v>60</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4074,7 +4074,7 @@
         <v>10070229</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -4163,7 +4163,7 @@
         <v>10071415</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4177,7 +4177,7 @@
         <v>78</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">

--- a/海晟目录/指标/黑龙江育苗/黑龙江微信育苗报表表样20180316.xlsx
+++ b/海晟目录/指标/黑龙江育苗/黑龙江微信育苗报表表样20180316.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9405" tabRatio="660" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9405" tabRatio="660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="育苗播种进度统计" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="121">
   <si>
     <t>单位名称</t>
   </si>
@@ -181,10 +181,6 @@
   </si>
   <si>
     <t>19-230151YM00020</t>
-  </si>
-  <si>
-    <t>烟苗来源
-（母床育苗设施编号）</t>
   </si>
   <si>
     <t>19-230151YM00020MP00001</t>
@@ -464,12 +460,6 @@
     <t>10071503</t>
   </si>
   <si>
-    <t>10071504</t>
-  </si>
-  <si>
-    <t>10071505</t>
-  </si>
-  <si>
     <t>10071506</t>
   </si>
   <si>
@@ -523,34 +513,49 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>供苗面积
-(平方米)</t>
+    <t>10071416</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>供苗</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>面积
-(平方米)</t>
-    </r>
+    <t>开始：10071407，结束：10071408</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟苗来源
+（母床育苗设施编号）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟苗来源（母床县公司名称）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟苗来源（母床县育苗点名称）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10071417</t>
+  </si>
+  <si>
+    <t>10071418</t>
+  </si>
+  <si>
+    <t>子床育苗点</t>
+  </si>
+  <si>
+    <t>子床分公司</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>母床id</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10071506</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10071505</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -558,15 +563,12 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>10071416</t>
+    <t>供苗株数
+（株）</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>10071506</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始：10071407，结束：10071408</t>
+    <t>10071504</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +580,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,8 +707,48 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -716,6 +758,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,7 +797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,17 +903,38 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1168,11 +1237,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
@@ -1186,7 +1255,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="30.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1206,7 +1275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="21.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1220,7 +1289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="21.95" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1240,7 +1309,7 @@
         <v>50000.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="21.95" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1250,23 +1319,23 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="21.95" customHeight="1">
       <c r="A6" s="19"/>
       <c r="B6" s="21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>81</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>82</v>
       </c>
       <c r="F6" s="8">
         <v>10070212</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="21.95" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1274,7 +1343,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="30.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +1363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="21.95" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1308,7 +1377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="21.95" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1328,7 +1397,7 @@
         <v>50000.5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="21.95" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1342,7 +1411,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="21.95" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1351,7 +1420,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="30.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1380,7 +1449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="21.95" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -1399,7 +1468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="21.95" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1422,7 +1491,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="21.95" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
       <c r="C16" s="5"/>
@@ -1433,17 +1502,17 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="21.95" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="11">
         <v>10070215</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="20" t="s">
@@ -1456,8 +1525,8 @@
         <v>10070212</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="21.95" customHeight="1"/>
+    <row r="19" spans="1:9" ht="30.75" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1486,7 +1555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="21.95" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
@@ -1505,7 +1574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="21.95" customHeight="1">
       <c r="A21" s="13" t="s">
         <v>26</v>
       </c>
@@ -1527,7 +1596,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="21.95" customHeight="1">
       <c r="A22" s="13" t="s">
         <v>29</v>
       </c>
@@ -1550,7 +1619,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="21.95" customHeight="1">
       <c r="A23" s="21"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -1558,20 +1627,20 @@
         <v>10070216</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="20" t="s">
         <v>32</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I23" s="8">
         <v>10070218</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="21.95" customHeight="1">
       <c r="A24" s="21"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -1582,27 +1651,27 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="21.95" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="21.95" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="21.95" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="20.25" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="19.5" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>37</v>
       </c>
@@ -1622,7 +1691,7 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
@@ -1635,7 +1704,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="30.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1661,10 +1730,10 @@
         <v>44</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="21.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1690,7 +1759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="21.95" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1716,7 +1785,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="21.95" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1728,7 +1797,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="21.95" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1738,7 +1807,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="30.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1764,7 +1833,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="21.95" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1790,7 +1859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="21.95" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1816,7 +1885,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="21.95" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1828,7 +1897,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="21.95" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1838,7 +1907,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="30.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1864,7 +1933,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="21.95" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
@@ -1890,7 +1959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="21.95" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
@@ -1902,7 +1971,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="21.95" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1912,8 +1981,8 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="21.95" customHeight="1"/>
+    <row r="17" spans="1:8" ht="30.75" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -1939,7 +2008,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="21.95" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -1965,7 +2034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="21.95" customHeight="1">
       <c r="A19" s="18" t="s">
         <v>26</v>
       </c>
@@ -1976,7 +2045,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="21.95" customHeight="1">
       <c r="A20" s="13"/>
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
@@ -1986,22 +2055,22 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="21.95" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="21.95" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="21.95" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>36</v>
       </c>
@@ -2015,13 +2084,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N30"/>
+  <dimension ref="A2:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.25" style="1" customWidth="1"/>
@@ -2030,18 +2099,20 @@
     <col min="5" max="5" width="38.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="1" customWidth="1"/>
-    <col min="15" max="15" width="21.75" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.75" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="30.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2052,10 +2123,10 @@
         <v>46</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="21.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -2065,7 +2136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="21.95" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -2079,33 +2150,33 @@
         <v>29300</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="21.95" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>114</v>
+      <c r="B5" s="36" t="s">
+        <v>107</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="21.95" customHeight="1">
       <c r="A6" s="25"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="21.95" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" ht="30.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -2119,7 +2190,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="21.95" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -2129,7 +2200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="21.95" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -2143,7 +2214,7 @@
         <v>13900</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" ht="21.95" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -2155,13 +2226,13 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" ht="21.95" customHeight="1">
       <c r="A12" s="25"/>
       <c r="B12" s="27"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
     </row>
-    <row r="13" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="21.95" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2176,8 +2247,10 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" ht="30.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -2188,7 +2261,7 @@
         <v>17</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>1</v>
@@ -2199,8 +2272,10 @@
       <c r="G14" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:16" ht="21.95" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -2214,8 +2289,10 @@
       <c r="G15" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="1:16" ht="21.95" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>48</v>
       </c>
@@ -2237,33 +2314,39 @@
       <c r="G16" s="16">
         <v>4000</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+    </row>
+    <row r="17" spans="1:10" ht="21.95" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="21" t="s">
-        <v>105</v>
+      <c r="E17" s="36" t="s">
+        <v>102</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+    </row>
+    <row r="18" spans="1:10" ht="21.95" customHeight="1">
       <c r="A18" s="28"/>
       <c r="B18" s="29"/>
       <c r="C18" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>88</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>89</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+    </row>
+    <row r="19" spans="1:10" ht="21.95" customHeight="1"/>
+    <row r="20" spans="1:10" ht="30.75" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -2285,11 +2368,17 @@
       <c r="G20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H20" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="21.95" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -2303,11 +2392,13 @@
       <c r="G21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" ht="21.95" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>27</v>
@@ -2327,13 +2418,15 @@
       <c r="G22" s="16">
         <v>3000</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="21.95" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>27</v>
@@ -2347,13 +2440,15 @@
       <c r="G23" s="16">
         <v>1000</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="21.95" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>30</v>
@@ -2365,49 +2460,57 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" ht="21.95" customHeight="1">
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>104</v>
+        <v>89</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>101</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="H25" s="26">
+        <v>93</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25" s="26">
         <v>10071413</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="21.95" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="21.95" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="21.95" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="18.75" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="18.75" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2421,11 +2524,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
@@ -2438,36 +2541,36 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="30.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="I2" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="21.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -2493,7 +2596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="21.95" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -2519,7 +2622,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="21.95" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2531,7 +2634,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="21.95" customHeight="1">
       <c r="A6" s="25"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -2541,7 +2644,7 @@
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="21.95" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -2551,33 +2654,33 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="30.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:9" ht="21.95" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -2603,7 +2706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="21.95" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -2629,7 +2732,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="21.95" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -2641,7 +2744,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="21.95" customHeight="1">
       <c r="A12" s="25"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -2651,7 +2754,7 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="21.95" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2661,33 +2764,33 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="30.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:9" ht="21.95" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -2713,7 +2816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="21.95" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>48</v>
       </c>
@@ -2729,7 +2832,7 @@
       <c r="G16" s="17"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="21.95" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -2739,7 +2842,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="21.95" customHeight="1">
       <c r="A18" s="28"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -2749,34 +2852,34 @@
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
     </row>
-    <row r="19" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="21.95" customHeight="1"/>
+    <row r="20" spans="1:8" ht="30.75" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:8" ht="21.95" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -2802,9 +2905,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="21.95" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="16">
         <v>3000</v>
@@ -2818,7 +2921,7 @@
       <c r="G22" s="17"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="21.95" customHeight="1">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2828,7 +2931,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="21.95" customHeight="1">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
@@ -2838,27 +2941,27 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
     </row>
-    <row r="25" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="21.95" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="21.95" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="21.95" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="18.75" customHeight="1">
       <c r="A29" s="14"/>
     </row>
   </sheetData>
@@ -2871,16 +2974,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="37.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
@@ -2896,7 +2999,7 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="30.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2904,13 +3007,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="21.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -2920,7 +3023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="21.95" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -2934,7 +3037,7 @@
         <v>29300</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="21.95" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2942,17 +3045,17 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="21.95" customHeight="1">
       <c r="A6" s="25"/>
       <c r="B6" s="33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="21.95" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -2960,7 +3063,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="30.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -2968,13 +3071,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="21.95" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -2984,7 +3087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="21.95" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -2998,7 +3101,7 @@
         <v>13900</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="21.95" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -3010,7 +3113,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="21.95" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -3026,7 +3129,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="30.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -3043,13 +3146,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="21.95" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -3064,7 +3167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="21.95" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>48</v>
       </c>
@@ -3085,7 +3188,7 @@
       </c>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="21.95" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
@@ -3093,23 +3196,23 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="21.95" customHeight="1">
       <c r="A17" s="28"/>
       <c r="B17" s="29"/>
       <c r="C17" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>92</v>
-      </c>
       <c r="E17" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="21.95" customHeight="1"/>
+    <row r="19" spans="1:7" ht="30.75" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -3117,102 +3220,91 @@
         <v>23</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E19" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="F19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="21.95" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="C20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F20" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="21.95" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="C21" s="7">
         <v>300</v>
       </c>
-      <c r="E21" s="6">
+      <c r="D21" s="6">
         <v>43595</v>
       </c>
-      <c r="F21" s="5">
+      <c r="E21" s="5">
         <v>1</v>
       </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="21.95" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:7" ht="21.95" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="21.95" customHeight="1"/>
+    <row r="25" spans="1:7" ht="31.5" customHeight="1">
       <c r="A25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="21.95" customHeight="1">
+      <c r="A26" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -3220,55 +3312,55 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="21.95" customHeight="1">
       <c r="A27" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="C27" s="6">
         <v>43595</v>
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="24.75" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="24.75" customHeight="1">
       <c r="A29" s="28"/>
       <c r="B29" s="29"/>
       <c r="C29" s="34">
         <v>10071514</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="1:1" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3281,10 +3373,10 @@
   <dimension ref="A2:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -3304,36 +3396,36 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="30" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="I2" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="23.1" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -3359,7 +3451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="23.1" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -3385,7 +3477,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="23.1" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -3397,7 +3489,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="23.1" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -3409,33 +3501,33 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="28.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:14" ht="23.1" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -3461,7 +3553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="23.1" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -3487,7 +3579,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="23.1" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -3499,7 +3591,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="23.1" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -3515,33 +3607,33 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="30.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:14" ht="23.1" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
@@ -3567,7 +3659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="23.1" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>48</v>
       </c>
@@ -3579,7 +3671,7 @@
       <c r="G14" s="17"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="23.1" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
@@ -3589,34 +3681,34 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="23.1" customHeight="1"/>
+    <row r="17" spans="1:9" ht="29.25" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:9" ht="23.1" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -3642,9 +3734,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="23.1" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -3654,7 +3746,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="23.1" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -3664,39 +3756,39 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="23.1" customHeight="1"/>
+    <row r="22" spans="1:9" ht="29.25" customHeight="1">
       <c r="A22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:9" ht="23.1" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
@@ -3721,12 +3813,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="23.1" customHeight="1">
       <c r="A24" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -3736,7 +3828,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="23.1" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
@@ -3747,27 +3839,27 @@
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="23.1" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="23.1" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="23.1" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="23.1" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:9" ht="23.1" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3776,13 +3868,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G33"/>
+  <dimension ref="A2:I33"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -3796,7 +3888,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="30.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3804,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -3813,7 +3905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="21.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -3824,7 +3916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="21.95" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -3841,7 +3933,7 @@
         <v>29300</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="21.95" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -3850,12 +3942,12 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="21.95" customHeight="1">
       <c r="A6" s="25"/>
-      <c r="B6" s="37">
+      <c r="B6" s="39">
         <v>10070224</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="39">
         <v>10070225</v>
       </c>
       <c r="D6" s="26"/>
@@ -3863,14 +3955,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="21.95" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="30.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -3878,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>2</v>
@@ -3887,7 +3979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="21.95" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -3898,7 +3990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="21.95" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -3915,7 +4007,7 @@
         <v>13900</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="21.95" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -3932,7 +4024,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="21.95" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -3941,9 +4033,9 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="30.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
@@ -3952,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>2</v>
@@ -3961,7 +4053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="21.95" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -3973,7 +4065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="21.95" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
@@ -3993,23 +4085,23 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="21.95" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="37">
+    <row r="17" spans="1:9" ht="21.95" customHeight="1">
+      <c r="C17" s="39">
         <v>10070224</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="39">
         <v>10070225</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="30.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -4018,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>2</v>
@@ -4027,7 +4119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="21.95" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -4039,7 +4131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="21.95" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>26</v>
       </c>
@@ -4059,130 +4151,156 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="21.95" customHeight="1">
       <c r="A21" s="13"/>
       <c r="B21" s="5"/>
       <c r="E21" s="6"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="21.95" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="C22" s="35">
+      <c r="C22" s="18">
         <v>10070228</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="38">
         <v>10070229</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" customHeight="1">
       <c r="A23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I23" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="21.95" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="20.25" customHeight="1">
       <c r="A25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="6">
+        <v>43536</v>
+      </c>
+      <c r="F25" s="6">
+        <v>43539</v>
+      </c>
+      <c r="G25" s="5">
+        <v>4</v>
+      </c>
+      <c r="H25" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="6">
-        <v>43536</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="6">
+        <v>43537</v>
+      </c>
+      <c r="F26" s="6">
         <v>43539</v>
       </c>
-      <c r="E25" s="5">
-        <v>4</v>
-      </c>
-      <c r="F25" s="5">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="6">
-        <v>43537</v>
-      </c>
-      <c r="D26" s="6">
-        <v>43539</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="G26" s="5">
         <v>3</v>
       </c>
-      <c r="F26" s="5">
+      <c r="H26" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="21.75" customHeight="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="35">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="22.5" customHeight="1">
+      <c r="B28" s="45">
+        <v>10071419</v>
+      </c>
+      <c r="C28" s="45">
+        <v>10071420</v>
+      </c>
+      <c r="D28" s="18">
         <v>10071414</v>
       </c>
-      <c r="D28" s="35">
+      <c r="E28" s="18">
         <v>10071415</v>
       </c>
-      <c r="F28" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G28" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="1">
+        <v>10070230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="28.5" customHeight="1">
       <c r="A29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="21" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -4190,12 +4308,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="18.75" customHeight="1">
       <c r="A31" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="C31" s="6">
         <v>43595</v>
@@ -4204,12 +4322,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="21.75" customHeight="1">
       <c r="A32" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="C32" s="6">
         <v>43596</v>
@@ -4218,12 +4336,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C33" s="34">
+    <row r="33" spans="3:4">
+      <c r="C33" s="37">
         <v>10071514</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
